--- a/Data/Cercospora_PROTH_description.xlsx
+++ b/Data/Cercospora_PROTH_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsuagctr.sharepoint.com/sites/RicePathologyLab-Students-RiceResearchStation-AndersonCerutti/Shared Documents/Cercospora/CERC_DATA/CERC_PROTH/CERC_Data_PROTH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsuagctr-my.sharepoint.com/personal/acerutti_agcenter_lsu_edu/Documents/Documents/GitHub/Cercospora_PROTH/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{B521CAD1-B04F-41B4-8C4D-BBC1E172B03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E79230-2BFD-4161-A655-A36E4D5E653D}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="8_{B521CAD1-B04F-41B4-8C4D-BBC1E172B03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78DF4679-8C95-4B81-B9E0-C7ABEBBF2968}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{58E64BEA-56DB-4F46-BCEA-90D1CD645A95}"/>
+    <workbookView xWindow="28680" yWindow="3495" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{58E64BEA-56DB-4F46-BCEA-90D1CD645A95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>NBLS</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>PVL03</t>
@@ -3145,7 +3142,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -3155,67 +3152,67 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3228,8 +3225,8 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68:B91"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,7 +3249,8 @@
     <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3261,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3291,13 +3289,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -3332,16 +3330,16 @@
         <v>2024</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>101</v>
@@ -3359,16 +3357,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O2" s="2">
         <v>10.33</v>
@@ -3403,16 +3401,16 @@
         <v>2024</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>102</v>
@@ -3430,16 +3428,16 @@
         <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O3" s="2">
         <v>9.6999999999999993</v>
@@ -3474,16 +3472,16 @@
         <v>2024</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>103</v>
@@ -3501,16 +3499,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
         <v>10.51</v>
@@ -3545,16 +3543,16 @@
         <v>2024</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>104</v>
@@ -3572,16 +3570,16 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
         <v>11.21</v>
@@ -3616,16 +3614,16 @@
         <v>2024</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>201</v>
@@ -3643,16 +3641,16 @@
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2">
         <v>10.56</v>
@@ -3687,16 +3685,16 @@
         <v>2024</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>202</v>
@@ -3714,16 +3712,16 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" s="2">
         <v>10.1</v>
@@ -3758,16 +3756,16 @@
         <v>2024</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>203</v>
@@ -3785,16 +3783,16 @@
         <v>2</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O8" s="2">
         <v>9.08</v>
@@ -3829,16 +3827,16 @@
         <v>2024</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>204</v>
@@ -3856,16 +3854,16 @@
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2">
         <v>9.83</v>
@@ -3900,16 +3898,16 @@
         <v>2024</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
         <v>301</v>
@@ -3927,16 +3925,16 @@
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O10" s="2">
         <v>9.93</v>
@@ -3971,16 +3969,16 @@
         <v>2024</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>302</v>
@@ -3998,16 +3996,16 @@
         <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O11" s="2">
         <v>9.57</v>
@@ -4042,16 +4040,16 @@
         <v>2024</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>303</v>
@@ -4069,16 +4067,16 @@
         <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O12" s="2">
         <v>9.9</v>
@@ -4113,16 +4111,16 @@
         <v>2024</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>304</v>
@@ -4140,16 +4138,16 @@
         <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O13" s="2">
         <v>10.01</v>
@@ -4184,16 +4182,16 @@
         <v>2024</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>401</v>
@@ -4211,16 +4209,16 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O14" s="2">
         <v>10.73</v>
@@ -4255,16 +4253,16 @@
         <v>2024</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>402</v>
@@ -4282,16 +4280,16 @@
         <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O15" s="2">
         <v>10.33</v>
@@ -4326,16 +4324,16 @@
         <v>2024</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
         <v>403</v>
@@ -4353,16 +4351,16 @@
         <v>5</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O16" s="2">
         <v>10.75</v>
@@ -4397,16 +4395,16 @@
         <v>2024</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2">
         <v>404</v>
@@ -4424,16 +4422,16 @@
         <v>6</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2">
         <v>9.3699999999999992</v>
@@ -4468,16 +4466,16 @@
         <v>2024</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>501</v>
@@ -4495,16 +4493,16 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O18" s="2">
         <v>9.4</v>
@@ -4539,16 +4537,16 @@
         <v>2024</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>502</v>
@@ -4566,16 +4564,16 @@
         <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2">
         <v>9.36</v>
@@ -4610,16 +4608,16 @@
         <v>2024</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>503</v>
@@ -4637,16 +4635,16 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O20" s="2">
         <v>10.1</v>
@@ -4681,16 +4679,16 @@
         <v>2024</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
         <v>504</v>
@@ -4708,16 +4706,16 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O21" s="2">
         <v>8.85</v>
@@ -4752,16 +4750,16 @@
         <v>2024</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
         <v>601</v>
@@ -4779,16 +4777,16 @@
         <v>6</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2">
         <v>10.58</v>
@@ -4823,16 +4821,16 @@
         <v>2024</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2">
         <v>602</v>
@@ -4850,16 +4848,16 @@
         <v>6</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" s="2">
         <v>10.07</v>
@@ -4894,16 +4892,16 @@
         <v>2024</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
         <v>603</v>
@@ -4921,16 +4919,16 @@
         <v>6</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="N24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O24" s="2">
         <v>9.74</v>
@@ -4965,16 +4963,16 @@
         <v>2024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2">
         <v>604</v>
@@ -4992,16 +4990,16 @@
         <v>5</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O25" s="2">
         <v>9.41</v>
@@ -5036,16 +5034,16 @@
         <v>2024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2">
         <v>101</v>
@@ -5063,16 +5061,16 @@
         <v>5</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="N26" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O26" s="2">
         <v>6.87</v>
@@ -5107,16 +5105,16 @@
         <v>2024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2">
         <v>102</v>
@@ -5134,16 +5132,16 @@
         <v>6</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="N27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O27" s="2">
         <v>6.48</v>
@@ -5178,16 +5176,16 @@
         <v>2024</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2">
         <v>103</v>
@@ -5205,16 +5203,16 @@
         <v>2</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O28" s="2">
         <v>6.34</v>
@@ -5249,16 +5247,16 @@
         <v>2024</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2">
         <v>104</v>
@@ -5276,16 +5274,16 @@
         <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="N29" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O29" s="2">
         <v>5.75</v>
@@ -5320,16 +5318,16 @@
         <v>2024</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2">
         <v>201</v>
@@ -5347,16 +5345,16 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30" s="2">
         <v>7.24</v>
@@ -5391,16 +5389,16 @@
         <v>2024</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2">
         <v>202</v>
@@ -5418,16 +5416,16 @@
         <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O31" s="2">
         <v>7.95</v>
@@ -5462,16 +5460,16 @@
         <v>2024</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2">
         <v>203</v>
@@ -5489,16 +5487,16 @@
         <v>6</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="N32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O32" s="2">
         <v>7.58</v>
@@ -5533,16 +5531,16 @@
         <v>2024</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2">
         <v>204</v>
@@ -5560,16 +5558,16 @@
         <v>2</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O33" s="2">
         <v>7.95</v>
@@ -5604,16 +5602,16 @@
         <v>2024</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2">
         <v>301</v>
@@ -5631,16 +5629,16 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="N34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O34" s="2">
         <v>7.91</v>
@@ -5675,16 +5673,16 @@
         <v>2024</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2">
         <v>302</v>
@@ -5702,16 +5700,16 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O35" s="2">
         <v>7.83</v>
@@ -5746,16 +5744,16 @@
         <v>2024</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="2">
         <v>303</v>
@@ -5773,16 +5771,16 @@
         <v>5</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O36" s="2">
         <v>8.16</v>
@@ -5817,16 +5815,16 @@
         <v>2024</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2">
         <v>304</v>
@@ -5844,16 +5842,16 @@
         <v>6</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O37" s="2">
         <v>7.72</v>
@@ -5888,16 +5886,16 @@
         <v>2024</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2">
         <v>401</v>
@@ -5915,16 +5913,16 @@
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O38" s="2">
         <v>7.64</v>
@@ -5959,16 +5957,16 @@
         <v>2024</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" s="2">
         <v>402</v>
@@ -5986,16 +5984,16 @@
         <v>5</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O39" s="2">
         <v>8.19</v>
@@ -6030,16 +6028,16 @@
         <v>2024</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="2">
         <v>403</v>
@@ -6057,16 +6055,16 @@
         <v>3</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O40" s="2">
         <v>8.36</v>
@@ -6101,16 +6099,16 @@
         <v>2024</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2">
         <v>404</v>
@@ -6128,16 +6126,16 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O41" s="2">
         <v>7.82</v>
@@ -6172,16 +6170,16 @@
         <v>2024</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="2">
         <v>501</v>
@@ -6199,16 +6197,16 @@
         <v>2</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O42" s="2">
         <v>8.39</v>
@@ -6243,16 +6241,16 @@
         <v>2024</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2">
         <v>502</v>
@@ -6270,16 +6268,16 @@
         <v>2</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O43" s="2">
         <v>8.5500000000000007</v>
@@ -6314,16 +6312,16 @@
         <v>2024</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2">
         <v>503</v>
@@ -6341,16 +6339,16 @@
         <v>1</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O44" s="2">
         <v>8</v>
@@ -6385,16 +6383,16 @@
         <v>2024</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" s="2">
         <v>504</v>
@@ -6412,16 +6410,16 @@
         <v>4</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O45" s="2">
         <v>8.61</v>
@@ -6456,16 +6454,16 @@
         <v>2024</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="2">
         <v>601</v>
@@ -6483,16 +6481,16 @@
         <v>4</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O46" s="2">
         <v>8.98</v>
@@ -6527,16 +6525,16 @@
         <v>2024</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47" s="2">
         <v>602</v>
@@ -6554,16 +6552,16 @@
         <v>1</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O47" s="2">
         <v>7.95</v>
@@ -6598,16 +6596,16 @@
         <v>2024</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" s="2">
         <v>603</v>
@@ -6625,16 +6623,16 @@
         <v>4</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O48" s="2">
         <v>8.69</v>
@@ -6669,16 +6667,16 @@
         <v>2024</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" s="2">
         <v>604</v>
@@ -6696,16 +6694,16 @@
         <v>3</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O49" s="2">
         <v>9.39</v>
@@ -6740,16 +6738,16 @@
         <v>2024</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="2">
         <v>101</v>
@@ -6767,16 +6765,16 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="N50" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O50" s="3">
         <v>9.1300000000000008</v>
@@ -6813,16 +6811,16 @@
         <v>2024</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" s="2">
         <v>102</v>
@@ -6840,16 +6838,16 @@
         <v>6</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O51" s="3">
         <v>9.4700000000000006</v>
@@ -6886,16 +6884,16 @@
         <v>2024</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" s="2">
         <v>103</v>
@@ -6913,16 +6911,16 @@
         <v>2</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O52" s="3">
         <v>9.33</v>
@@ -6959,16 +6957,16 @@
         <v>2024</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="2">
         <v>104</v>
@@ -6986,16 +6984,16 @@
         <v>6</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="N53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O53" s="3">
         <v>9.61</v>
@@ -7032,16 +7030,16 @@
         <v>2024</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="2">
         <v>105</v>
@@ -7059,16 +7057,16 @@
         <v>4</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O54" s="3">
         <v>9.84</v>
@@ -7105,16 +7103,16 @@
         <v>2024</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" s="2">
         <v>106</v>
@@ -7132,16 +7130,16 @@
         <v>2</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O55" s="3">
         <v>10.63</v>
@@ -7178,16 +7176,16 @@
         <v>2024</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" s="2">
         <v>107</v>
@@ -7205,16 +7203,16 @@
         <v>2</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O56" s="3">
         <v>9.3000000000000007</v>
@@ -7251,16 +7249,16 @@
         <v>2024</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57" s="2">
         <v>108</v>
@@ -7278,16 +7276,16 @@
         <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O57" s="3">
         <v>9.7200000000000006</v>
@@ -7324,16 +7322,16 @@
         <v>2024</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" s="2">
         <v>109</v>
@@ -7351,16 +7349,16 @@
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O58" s="3">
         <v>8.36</v>
@@ -7397,16 +7395,16 @@
         <v>2024</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F59" s="2">
         <v>201</v>
@@ -7424,16 +7422,16 @@
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O59" s="3">
         <v>9.75</v>
@@ -7470,16 +7468,16 @@
         <v>2024</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" s="2">
         <v>202</v>
@@ -7497,16 +7495,16 @@
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O60" s="3">
         <v>9.89</v>
@@ -7543,16 +7541,16 @@
         <v>2024</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61" s="2">
         <v>203</v>
@@ -7570,16 +7568,16 @@
         <v>4</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O61" s="3">
         <v>9.14</v>
@@ -7616,16 +7614,16 @@
         <v>2024</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="2">
         <v>204</v>
@@ -7643,16 +7641,16 @@
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O62" s="3">
         <v>8.6999999999999993</v>
@@ -7689,16 +7687,16 @@
         <v>2024</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F63" s="2">
         <v>205</v>
@@ -7716,16 +7714,16 @@
         <v>5</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O63" s="3">
         <v>9.34</v>
@@ -7762,16 +7760,16 @@
         <v>2024</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" s="2">
         <v>206</v>
@@ -7789,16 +7787,16 @@
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O64" s="3">
         <v>10.29</v>
@@ -7835,16 +7833,16 @@
         <v>2024</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65" s="2">
         <v>207</v>
@@ -7862,16 +7860,16 @@
         <v>6</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="N65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O65" s="3">
         <v>9.0500000000000007</v>
@@ -7908,16 +7906,16 @@
         <v>2024</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66" s="2">
         <v>208</v>
@@ -7935,16 +7933,16 @@
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O66" s="3">
         <v>10.199999999999999</v>
@@ -7966,12 +7964,8 @@
       <c r="T66" s="8">
         <v>6599.7673160000004</v>
       </c>
-      <c r="U66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="V66" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
       <c r="W66" s="3">
         <v>6</v>
       </c>
@@ -7981,16 +7975,16 @@
         <v>2024</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F67" s="2">
         <v>209</v>
@@ -8008,16 +8002,16 @@
         <v>4</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O67" s="3">
         <v>9.73</v>
@@ -8054,16 +8048,16 @@
         <v>2024</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F68" s="3">
         <v>101</v>
@@ -8081,16 +8075,16 @@
         <v>1</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O68" s="8">
         <v>22.04</v>
@@ -8119,25 +8113,22 @@
       <c r="V68" s="3">
         <v>50.44</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2024</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F69" s="3">
         <v>102</v>
@@ -8155,16 +8146,16 @@
         <v>2</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M69" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O69" s="8">
         <v>20.85</v>
@@ -8193,25 +8184,22 @@
       <c r="V69" s="3">
         <v>52.59</v>
       </c>
-      <c r="W69" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2024</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F70" s="3">
         <v>103</v>
@@ -8229,16 +8217,16 @@
         <v>3</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8">
         <v>20.62</v>
@@ -8267,25 +8255,22 @@
       <c r="V70" s="3">
         <v>52.54</v>
       </c>
-      <c r="W70" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2024</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F71" s="3">
         <v>104</v>
@@ -8303,16 +8288,16 @@
         <v>4</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L71" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O71" s="8">
         <v>19.91</v>
@@ -8341,25 +8326,22 @@
       <c r="V71" s="3">
         <v>51.28</v>
       </c>
-      <c r="W71" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2024</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F72" s="3">
         <v>105</v>
@@ -8377,16 +8359,16 @@
         <v>5</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L72" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M72" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M72" s="12" t="s">
+      <c r="N72" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O72" s="8">
         <v>21.12</v>
@@ -8415,25 +8397,22 @@
       <c r="V72" s="3">
         <v>46.2</v>
       </c>
-      <c r="W72" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2024</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F73" s="3">
         <v>106</v>
@@ -8451,16 +8430,16 @@
         <v>6</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L73" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M73" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="N73" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8">
         <v>20.75</v>
@@ -8489,25 +8468,22 @@
       <c r="V73" s="3">
         <v>47.09</v>
       </c>
-      <c r="W73" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2024</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F74" s="3">
         <v>201</v>
@@ -8525,16 +8501,16 @@
         <v>2</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M74" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O74" s="8">
         <v>16.559999999999999</v>
@@ -8563,25 +8539,22 @@
       <c r="V74" s="3">
         <v>52.59</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2024</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F75" s="3">
         <v>202</v>
@@ -8599,16 +8572,16 @@
         <v>3</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8">
         <v>16.88</v>
@@ -8637,25 +8610,22 @@
       <c r="V75" s="3">
         <v>52.43</v>
       </c>
-      <c r="W75" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2024</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F76" s="3">
         <v>203</v>
@@ -8673,16 +8643,16 @@
         <v>4</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L76" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O76" s="8">
         <v>15.54</v>
@@ -8711,25 +8681,22 @@
       <c r="V76" s="3">
         <v>50.02</v>
       </c>
-      <c r="W76" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2024</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F77" s="3">
         <v>204</v>
@@ -8747,16 +8714,16 @@
         <v>6</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L77" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M77" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="N77" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O77" s="8">
         <v>17.260000000000002</v>
@@ -8785,25 +8752,22 @@
       <c r="V77" s="3">
         <v>51.83</v>
       </c>
-      <c r="W77" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2024</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F78" s="3">
         <v>205</v>
@@ -8821,16 +8785,16 @@
         <v>1</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O78" s="8">
         <v>18.37</v>
@@ -8859,25 +8823,22 @@
       <c r="V78" s="3">
         <v>49.83</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2024</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F79" s="3">
         <v>206</v>
@@ -8895,16 +8856,16 @@
         <v>5</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M79" s="12" t="s">
+      <c r="N79" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O79" s="8">
         <v>18.05</v>
@@ -8933,25 +8894,22 @@
       <c r="V79" s="3">
         <v>47.62</v>
       </c>
-      <c r="W79" s="13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2024</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F80" s="3">
         <v>301</v>
@@ -8969,16 +8927,16 @@
         <v>4</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O80" s="8">
         <v>19.12</v>
@@ -9007,25 +8965,22 @@
       <c r="V80" s="3">
         <v>52.86</v>
       </c>
-      <c r="W80" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2024</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F81" s="3">
         <v>302</v>
@@ -9043,16 +8998,16 @@
         <v>6</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L81" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M81" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M81" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="N81" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O81" s="8">
         <v>18.71</v>
@@ -9081,25 +9036,22 @@
       <c r="V81" s="3">
         <v>49.55</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2024</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F82" s="3">
         <v>303</v>
@@ -9117,16 +9069,16 @@
         <v>1</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O82" s="8">
         <v>19.12</v>
@@ -9155,25 +9107,22 @@
       <c r="V82" s="3">
         <v>46.36</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2024</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F83" s="3">
         <v>304</v>
@@ -9191,16 +9140,16 @@
         <v>5</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L83" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M83" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M83" s="12" t="s">
+      <c r="N83" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O83" s="8">
         <v>17.899999999999999</v>
@@ -9229,25 +9178,22 @@
       <c r="V83" s="3">
         <v>46.99</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2024</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F84" s="3">
         <v>305</v>
@@ -9265,16 +9211,16 @@
         <v>3</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O84" s="8">
         <v>18.3</v>
@@ -9303,25 +9249,22 @@
       <c r="V84" s="3">
         <v>44.83</v>
       </c>
-      <c r="W84" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2024</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F85" s="3">
         <v>306</v>
@@ -9339,16 +9282,16 @@
         <v>2</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M85" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O85" s="8">
         <v>18.86</v>
@@ -9377,25 +9320,22 @@
       <c r="V85" s="3">
         <v>45.42</v>
       </c>
-      <c r="W85" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2024</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F86" s="3">
         <v>401</v>
@@ -9413,16 +9353,16 @@
         <v>2</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M86" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N86" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O86" s="8">
         <v>19.84</v>
@@ -9451,25 +9391,22 @@
       <c r="V86" s="3">
         <v>50.92</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2024</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F87" s="3">
         <v>402</v>
@@ -9487,16 +9424,16 @@
         <v>4</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L87" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="M87" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O87" s="8">
         <v>20.51</v>
@@ -9525,25 +9462,22 @@
       <c r="V87" s="3">
         <v>54.14</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2024</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F88" s="3">
         <v>403</v>
@@ -9561,16 +9495,16 @@
         <v>5</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L88" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M88" s="12" t="s">
+      <c r="N88" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O88" s="8">
         <v>19.48</v>
@@ -9599,25 +9533,22 @@
       <c r="V88" s="3">
         <v>50.34</v>
       </c>
-      <c r="W88" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2024</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F89" s="3">
         <v>404</v>
@@ -9635,16 +9566,16 @@
         <v>3</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O89" s="8">
         <v>19.510000000000002</v>
@@ -9673,25 +9604,22 @@
       <c r="V89" s="3">
         <v>51.96</v>
       </c>
-      <c r="W89" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2024</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F90" s="3">
         <v>405</v>
@@ -9709,16 +9637,16 @@
         <v>6</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L90" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M90" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M90" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="N90" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O90" s="8">
         <v>18.54</v>
@@ -9744,28 +9672,25 @@
       <c r="U90" s="3">
         <v>71.069999999999993</v>
       </c>
-      <c r="V90" s="3">
+      <c r="V90" s="8">
         <v>46</v>
       </c>
-      <c r="W90" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2024</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F91" s="3">
         <v>406</v>
@@ -9783,16 +9708,16 @@
         <v>1</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O91" s="8">
         <v>20.99</v>
@@ -9821,11 +9746,8 @@
       <c r="V91" s="3">
         <v>47.78</v>
       </c>
-      <c r="W91" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -9849,7 +9771,7 @@
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -9873,7 +9795,7 @@
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -9897,7 +9819,7 @@
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -9921,7 +9843,7 @@
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -12472,6 +12394,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2843789-6ce0-4c67-8bf3-b5ed13cce4b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12480,7 +12412,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100928B16406DF24E43A98D222CE34F1EF2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c096b0cb6809c35262818d47acb86f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2843789-6ce0-4c67-8bf3-b5ed13cce4b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a513e3194161eb6bd4c9ae0bcc385172" ns2:_="">
     <xsd:import namespace="b2843789-6ce0-4c67-8bf3-b5ed13cce4b2"/>
@@ -12670,17 +12602,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2843789-6ce0-4c67-8bf3-b5ed13cce4b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{680E192F-65F2-4B59-AEA2-95F93556C8D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b2843789-6ce0-4c67-8bf3-b5ed13cce4b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE8CD45A-A0E8-4060-91AF-9B0DE1D8657A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -12688,7 +12626,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5A5ACC8-10E1-4CB0-9693-9C5D73349584}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12704,20 +12642,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{680E192F-65F2-4B59-AEA2-95F93556C8D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b2843789-6ce0-4c67-8bf3-b5ed13cce4b2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>